--- a/server/course_24_S_AMS.xlsx
+++ b/server/course_24_S_AMS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t>Class Nbr</t>
   </si>
@@ -55,7 +55,7 @@
     <t>AMS</t>
   </si>
   <si>
-    <t>Spreadsheet Technology and Applications</t>
+    <t>Introduction to Spreadsheets</t>
   </si>
   <si>
     <t>QPS, TECH</t>
@@ -64,163 +64,193 @@
     <t>LEC</t>
   </si>
   <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>Kangmin Cho</t>
+  </si>
+  <si>
+    <t>Applied Calculus I</t>
+  </si>
+  <si>
+    <t>QPS</t>
+  </si>
+  <si>
+    <t>A211</t>
+  </si>
+  <si>
+    <t>Young-Seon Lee</t>
+  </si>
+  <si>
     <t>TUTH</t>
   </si>
   <si>
     <t>C107</t>
   </si>
   <si>
-    <t>Kangmin Cho</t>
-  </si>
-  <si>
-    <t>Applied Calculus I</t>
-  </si>
-  <si>
-    <t>QPS</t>
-  </si>
-  <si>
-    <t>MW</t>
+    <t>Kazem Mahdavi</t>
+  </si>
+  <si>
+    <t>Applied Calculus II</t>
   </si>
   <si>
     <t>C103</t>
   </si>
   <si>
-    <t>Suil O</t>
+    <t>Applied Linear Algebra</t>
+  </si>
+  <si>
+    <t>STEM+</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>Ky Tran</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>Su Il Oh</t>
+  </si>
+  <si>
+    <t>Applied Calculus III</t>
+  </si>
+  <si>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Finite Mathematical Structures</t>
+  </si>
+  <si>
+    <t>Survey of Probability and Statistics</t>
+  </si>
+  <si>
+    <t>Hongshik Ahn</t>
+  </si>
+  <si>
+    <t>Probability Theory</t>
+  </si>
+  <si>
+    <t>B313</t>
+  </si>
+  <si>
+    <t>Jinsoo Hwang</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>CEP, ESI</t>
+  </si>
+  <si>
+    <t>Changsoon Park</t>
+  </si>
+  <si>
+    <t>Financial Mathematics</t>
+  </si>
+  <si>
+    <t>WPTD</t>
+  </si>
+  <si>
+    <t>Taewon Lee</t>
+  </si>
+  <si>
+    <t>Numerical Analysis</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>Data Mining</t>
   </si>
   <si>
     <t>Hyunwook Koh</t>
   </si>
   <si>
-    <t>Applied Calculus II</t>
-  </si>
-  <si>
-    <t>C105</t>
-  </si>
-  <si>
-    <t>Young-Seon Lee</t>
-  </si>
-  <si>
-    <t>Applied Linear Algebra</t>
-  </si>
-  <si>
-    <t>STEM+</t>
-  </si>
-  <si>
-    <t>Ky Tran</t>
-  </si>
-  <si>
-    <t>Applied Calculus III</t>
-  </si>
-  <si>
-    <t>A704</t>
+    <t>Undergrad Teachng Practicum</t>
+  </si>
+  <si>
+    <t>EXP+; SPK</t>
+  </si>
+  <si>
+    <t>TUT</t>
+  </si>
+  <si>
+    <t>T90</t>
+  </si>
+  <si>
+    <t>APPT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Undergrad Teaching Practicum</t>
+  </si>
+  <si>
+    <t>Pesearch in Applied Mathematic</t>
+  </si>
+  <si>
+    <t>EXP+; WPTD</t>
+  </si>
+  <si>
+    <t>0 to 3</t>
+  </si>
+  <si>
+    <t>T91</t>
+  </si>
+  <si>
+    <t>T92</t>
   </si>
   <si>
     <t>Tan Cao</t>
   </si>
   <si>
-    <t>REC</t>
-  </si>
-  <si>
-    <t>R90</t>
-  </si>
-  <si>
-    <t>RECM</t>
-  </si>
-  <si>
-    <t>Finite Mathematical Structures</t>
-  </si>
-  <si>
-    <t>Survey of Probability and Statistics</t>
-  </si>
-  <si>
-    <t>B207</t>
-  </si>
-  <si>
-    <t>Introduction to Linear Regression Analysis</t>
-  </si>
-  <si>
-    <t>Changsoon Park</t>
-  </si>
-  <si>
-    <t>Applied Algebra</t>
-  </si>
-  <si>
-    <t>Kazem Mahdavi</t>
-  </si>
-  <si>
-    <t>RECTH</t>
-  </si>
-  <si>
-    <t>Applied Calculus IV: Differential Equations</t>
-  </si>
-  <si>
-    <t>A312</t>
-  </si>
-  <si>
-    <t>RECTU</t>
-  </si>
-  <si>
-    <t>Statistical Laboratory</t>
-  </si>
-  <si>
-    <t>CER, ESI, EXP+</t>
-  </si>
-  <si>
-    <t>A313</t>
-  </si>
-  <si>
-    <t>Mathematical Statistics</t>
-  </si>
-  <si>
-    <t>B206</t>
-  </si>
-  <si>
-    <t>Undergrad Teachng Practicum</t>
-  </si>
-  <si>
-    <t>EXP+; SPK</t>
-  </si>
-  <si>
-    <t>TUT</t>
-  </si>
-  <si>
-    <t>T90</t>
-  </si>
-  <si>
-    <t>APPT</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Hongshik Ahn</t>
-  </si>
-  <si>
-    <t>Undergrad Teaching Practicum</t>
-  </si>
-  <si>
-    <t>Research in Applied Mathematic</t>
-  </si>
-  <si>
-    <t>EXP+; WRTD</t>
-  </si>
-  <si>
-    <t>0 to 3</t>
-  </si>
-  <si>
-    <t>T91</t>
-  </si>
-  <si>
-    <t>T92</t>
-  </si>
-  <si>
     <t>T93</t>
   </si>
   <si>
     <t>T94</t>
   </si>
   <si>
-    <t>Introduction to Probability</t>
+    <t>T95</t>
+  </si>
+  <si>
+    <t>T96</t>
+  </si>
+  <si>
+    <t>Analytical Methods for Applied Mathematics and Statistics</t>
+  </si>
+  <si>
+    <t>A724</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>A314</t>
+  </si>
+  <si>
+    <t>Data Analysis I</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>Statistical Computing</t>
+  </si>
+  <si>
+    <t>A702</t>
   </si>
 </sst>
 </file>
@@ -338,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -385,6 +415,9 @@
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
@@ -650,7 +683,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>96950.0</v>
+        <v>56458.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -691,7 +724,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7">
-        <v>92220.0</v>
+        <v>52114.0</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
@@ -715,24 +748,24 @@
         <v>3.0</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="10">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7">
-        <v>97188.0</v>
+        <v>52213.0</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
@@ -750,13 +783,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="7">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="H4" s="7">
         <v>3.0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J4" s="10">
         <v>0.6458333333333334</v>
@@ -765,15 +798,15 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7">
-        <v>92221.0</v>
+        <v>52115.0</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
@@ -782,7 +815,7 @@
         <v>161.0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -797,7 +830,7 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5" s="10">
         <v>0.6458333333333334</v>
@@ -806,15 +839,15 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7">
-        <v>92383.0</v>
+        <v>52214.0</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
@@ -823,7 +856,7 @@
         <v>161.0</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
@@ -838,7 +871,7 @@
         <v>3.0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J6" s="10">
         <v>0.6458333333333334</v>
@@ -847,15 +880,15 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7">
-        <v>92222.0</v>
+        <v>52116.0</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
@@ -882,21 +915,21 @@
         <v>17</v>
       </c>
       <c r="J7" s="10">
-        <v>0.7083333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K7" s="10">
-        <v>0.7638888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7">
-        <v>97191.0</v>
+        <v>52352.0</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -920,7 +953,7 @@
         <v>3.0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J8" s="10">
         <v>0.7083333333333334</v>
@@ -929,15 +962,15 @@
         <v>0.7638888888888888</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7">
-        <v>92223.0</v>
+        <v>52117.0</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>13</v>
@@ -946,7 +979,7 @@
         <v>261.0</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>30</v>
@@ -961,7 +994,7 @@
         <v>4.0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J9" s="10">
         <v>0.6458333333333334</v>
@@ -970,29 +1003,29 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7">
-        <v>92224.0</v>
+        <v>52118.0</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="10">
         <v>0.5208333333333334</v>
@@ -1001,13 +1034,13 @@
         <v>0.5590277777777778</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="7">
-        <v>92225.0</v>
+        <v>52123.0</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
@@ -1016,7 +1049,7 @@
         <v>301.0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>30</v>
@@ -1031,24 +1064,24 @@
         <v>3.0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J11" s="10">
-        <v>0.7083333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K11" s="10">
-        <v>0.7638888888888888</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7">
-        <v>92226.0</v>
+        <v>52141.0</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
@@ -1057,7 +1090,7 @@
         <v>310.0</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>30</v>
@@ -1072,33 +1105,33 @@
         <v>3.0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J12" s="10">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="K12" s="10">
-        <v>0.4930555555555556</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7">
-        <v>92336.0</v>
+        <v>52119.0</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="7">
-        <v>317.0</v>
+        <v>311.0</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="8" t="s">
@@ -1111,268 +1144,290 @@
         <v>3.0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J13" s="10">
-        <v>0.5833333333333334</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K13" s="10">
-        <v>0.6388888888888888</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7">
-        <v>97233.0</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12">
-        <v>351.0</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="17"/>
+        <v>52120.0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>315.0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7">
         <v>90.0</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="7">
         <v>3.0</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="10">
-        <v>0.5208333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K14" s="10">
-        <v>0.5763888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7">
-        <v>97235.0</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+        <v>56459.0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>318.0</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="G15" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3.0</v>
+      </c>
       <c r="I15" s="8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" s="10">
-        <v>0.5833333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K15" s="10">
-        <v>0.6215277777777778</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7">
-        <v>92227.0</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12">
-        <v>361.0</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
+        <v>52200.0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7">
+        <v>326.0</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="7">
         <v>90.0</v>
       </c>
-      <c r="H16" s="14">
-        <v>4.0</v>
+      <c r="H16" s="7">
+        <v>3.0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J16" s="10">
-        <v>0.6458333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="K16" s="10">
-        <v>0.7013888888888888</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7">
-        <v>92228.0</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+        <v>52370.0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>380.0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="G17" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3.0</v>
+      </c>
       <c r="I17" s="8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J17" s="10">
-        <v>0.7083333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K17" s="10">
-        <v>0.7465277777777778</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7">
-        <v>92354.0</v>
+        <v>52121.0</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>394.0</v>
+        <v>475.0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="7">
-        <v>90.0</v>
+        <v>57</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H18" s="7">
         <v>3.0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J18" s="10">
-        <v>0.4375</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K18" s="10">
-        <v>0.4930555555555556</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7">
-        <v>92363.0</v>
+        <v>52165.0</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="7">
-        <v>412.0</v>
+        <v>476.0</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7">
-        <v>90.0</v>
+        <v>57</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H19" s="7">
         <v>3.0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J19" s="10">
-        <v>0.6458333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K19" s="10">
-        <v>0.7013888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7">
-        <v>92300.0</v>
+        <v>52122.0</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="7">
-        <v>475.0</v>
+        <v>487.0</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3.0</v>
+        <v>58</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J20" s="10">
         <v>0.041666666666666664</v>
@@ -1381,39 +1436,39 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7">
-        <v>92305.0</v>
+        <v>52171.0</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="7">
-        <v>476.0</v>
+        <v>487.0</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3.0</v>
+        <v>65</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" s="10">
         <v>0.041666666666666664</v>
@@ -1422,15 +1477,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7">
-        <v>92306.0</v>
+        <v>52192.0</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
@@ -1445,16 +1500,16 @@
         <v>63</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J22" s="10">
         <v>0.041666666666666664</v>
@@ -1463,15 +1518,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7">
-        <v>92337.0</v>
+        <v>52198.0</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
@@ -1486,16 +1541,16 @@
         <v>63</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23" s="10">
         <v>0.041666666666666664</v>
@@ -1504,15 +1559,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7">
-        <v>92338.0</v>
+        <v>52255.0</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
@@ -1527,16 +1582,16 @@
         <v>63</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J24" s="10">
         <v>0.041666666666666664</v>
@@ -1545,15 +1600,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7">
-        <v>92357.0</v>
+        <v>52256.0</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
@@ -1568,16 +1623,16 @@
         <v>63</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25" s="10">
         <v>0.041666666666666664</v>
@@ -1586,15 +1641,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7">
-        <v>92388.0</v>
+        <v>56833.0</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>13</v>
@@ -1609,16 +1664,16 @@
         <v>63</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26" s="10">
         <v>0.041666666666666664</v>
@@ -1627,26 +1682,26 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7">
-        <v>92369.0</v>
+        <v>56494.0</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="12">
-        <v>507.0</v>
+        <v>510.0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="E27" s="18"/>
       <c r="F27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1660,73 +1715,139 @@
         <v>17</v>
       </c>
       <c r="J27" s="10">
-        <v>0.375</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="K27" s="10">
-        <v>0.4305555555555556</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7">
-        <v>92370.0</v>
+        <v>56493.0</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="8" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J28" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7">
+        <v>56465.0</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7">
+        <v>572.0</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="10">
         <v>0.6458333333333334</v>
       </c>
-      <c r="K28" s="10">
-        <v>0.6840277777777778</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="15"/>
+      <c r="K29" s="10">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7">
+        <v>56467.0</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>597.0</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
+  <mergeCells count="12">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="M27:M28"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E27:E28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
